--- a/inst/extdata/Med_calc_unit_notright.xlsx
+++ b/inst/extdata/Med_calc_unit_notright.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheej\Documents\Sheeja_WinLap\repos\packDAMipd\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1899C690-FCC3-4EA7-93E1-866D866D3B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56428A70-233C-462D-A02A-F7C52E80D326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Tramadol</t>
   </si>
   <si>
-    <t>Conversion factor</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>c/hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> factor</t>
   </si>
 </sst>
 </file>
@@ -521,8 +521,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,27 +535,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>3.5000000000000003E-2</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -577,13 +577,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>0.15</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0.15</v>
@@ -605,13 +605,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0.1</v>
@@ -620,13 +620,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>0.1</v>
@@ -634,27 +634,27 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -662,16 +662,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -693,10 +693,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>1.5</v>
@@ -704,13 +704,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>0.125</v>
@@ -718,13 +718,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>0.4</v>
@@ -735,10 +735,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>0.125</v>
@@ -746,27 +746,27 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>0.15</v>
@@ -774,13 +774,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>0.15</v>
@@ -788,13 +788,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>0.15</v>
@@ -802,13 +802,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>0.1</v>
@@ -816,30 +816,30 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -861,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>1.5</v>
